--- a/Base/Teams/Saints/Distributions.xlsx
+++ b/Base/Teams/Saints/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.8715984256375289, 1.0585748399870791, 1.147028655619434, 2.2874684574336612)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9271590509518775, 1.0835135981468835, 4.407806745863697, 4.8030220191613004)</t>
-  </si>
-  <si>
-    <t>NIG(0.7179422472438421, 0.44009951637174666, 1.3718563573049576, 2.9808484104836626)</t>
-  </si>
-  <si>
-    <t>NIG(0.7437508757045029, 0.59015766211604, 5.105965969034222, 5.241470789859714)</t>
+    <t>JSU(-0.9253818133688692, 1.084398577801779, 1.0448756794302383, 2.43193904495486)</t>
+  </si>
+  <si>
+    <t>JSU(-0.864641889850274, 1.049053112163711, 4.560032182629527, 4.920485607784503)</t>
+  </si>
+  <si>
+    <t>JSU(-0.671348683652208, 0.9856592116870488, 0.9561681775097021, 2.372099718691907)</t>
+  </si>
+  <si>
+    <t>JSU(-1.027443545856932, 1.0385822068769421, 3.1975052928619627, 4.63010650752927)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Saints/Distributions.xlsx
+++ b/Base/Teams/Saints/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>JSU(-0.9253818133688692, 1.084398577801779, 1.0448756794302383, 2.43193904495486)</t>
-  </si>
-  <si>
-    <t>JSU(-0.864641889850274, 1.049053112163711, 4.560032182629527, 4.920485607784503)</t>
-  </si>
-  <si>
-    <t>JSU(-0.671348683652208, 0.9856592116870488, 0.9561681775097021, 2.372099718691907)</t>
-  </si>
-  <si>
-    <t>JSU(-1.027443545856932, 1.0385822068769421, 3.1975052928619627, 4.63010650752927)</t>
+    <t>NIG(0.9414315565236273, 0.6976249339774024, 1.3987170663267086, 2.8998042003394526)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9150914252046711, 1.0702175137455356, 4.351290564771493, 4.947250430425351)</t>
+  </si>
+  <si>
+    <t>JSU(-0.6829455128984832, 0.9750830952686264, 0.9656932476509564, 2.303694909508288)</t>
+  </si>
+  <si>
+    <t>JSU(-1.0895870143120048, 1.0830553370980227, 2.90943401634363, 4.8141334387780415)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Saints/Distributions.xlsx
+++ b/Base/Teams/Saints/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9414315565236273, 0.6976249339774024, 1.3987170663267086, 2.8998042003394526)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9150914252046711, 1.0702175137455356, 4.351290564771493, 4.947250430425351)</t>
-  </si>
-  <si>
-    <t>JSU(-0.6829455128984832, 0.9750830952686264, 0.9656932476509564, 2.303694909508288)</t>
-  </si>
-  <si>
-    <t>JSU(-1.0895870143120048, 1.0830553370980227, 2.90943401634363, 4.8141334387780415)</t>
+    <t>NIG(0.9004031587145218, 0.6405938341949465, 1.3646639060473915, 2.9451809548732046)</t>
+  </si>
+  <si>
+    <t>JSU(-0.8869957803715276, 0.9937017812981697, 4.45740534070488, 4.347987908665581)</t>
+  </si>
+  <si>
+    <t>JSU(-0.6753344863133022, 0.9784696193265736, 1.0577739163677964, 2.2720353053163134)</t>
+  </si>
+  <si>
+    <t>NIG(0.9418662832561067, 0.7438333367768206, 4.36951242257131, 5.346253263229717)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Saints/Distributions.xlsx
+++ b/Base/Teams/Saints/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.9004031587145218, 0.6405938341949465, 1.3646639060473915, 2.9451809548732046)</t>
-  </si>
-  <si>
-    <t>JSU(-0.8869957803715276, 0.9937017812981697, 4.45740534070488, 4.347987908665581)</t>
-  </si>
-  <si>
-    <t>JSU(-0.6753344863133022, 0.9784696193265736, 1.0577739163677964, 2.2720353053163134)</t>
-  </si>
-  <si>
-    <t>NIG(0.9418662832561067, 0.7438333367768206, 4.36951242257131, 5.346253263229717)</t>
+    <t>NIG(0.8848682078058188, 0.625848346745812, 1.2595050994395636, 3.0000016488317316)</t>
+  </si>
+  <si>
+    <t>JSU(-0.9068709387578091, 0.9978708045141396, 4.489548238032727, 4.3138346885107435)</t>
+  </si>
+  <si>
+    <t>JSU(-0.7340419998335979, 0.9965174489519537, 0.8526247497780218, 2.2794816092629144)</t>
+  </si>
+  <si>
+    <t>NIG(0.9370527748310995, 0.7285917165562444, 4.3471121180650485, 5.442789124624513)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Saints/Distributions.xlsx
+++ b/Base/Teams/Saints/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(0.8848682078058188, 0.625848346745812, 1.2595050994395636, 3.0000016488317316)</t>
-  </si>
-  <si>
-    <t>JSU(-0.9068709387578091, 0.9978708045141396, 4.489548238032727, 4.3138346885107435)</t>
-  </si>
-  <si>
-    <t>JSU(-0.7340419998335979, 0.9965174489519537, 0.8526247497780218, 2.2794816092629144)</t>
-  </si>
-  <si>
-    <t>NIG(0.9370527748310995, 0.7285917165562444, 4.3471121180650485, 5.442789124624513)</t>
+    <t>NIG(0.9519518233928137, 0.6608182499140475, 1.2337267539856231, 3.1575558330682485)</t>
+  </si>
+  <si>
+    <t>JSU(-0.931632726065527, 1.0241196670198187, 4.356308690931501, 4.460613376122927)</t>
+  </si>
+  <si>
+    <t>JSU(-0.7230186148342803, 0.9887969211400421, 0.9308941180233206, 2.2503016568178387)</t>
+  </si>
+  <si>
+    <t>NIG(1.0143194977821497, 0.7852580435735375, 4.049792238410902, 5.693886138403583)</t>
   </si>
 </sst>
 </file>
